--- a/Excel/Common/ImageTextMix.xlsx
+++ b/Excel/Common/ImageTextMix.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>tid</t>
   </si>
@@ -28,7 +31,16 @@
     <t>img_c_3</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>文本ID</t>
@@ -1005,20 +1017,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="4" width="39.375" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="5" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,100 +1044,114 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
         <v>1667200000</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="6" spans="2:4">
+      <c r="B6">
         <v>1667200001</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="7" spans="2:5">
+      <c r="B7">
         <v>1667200002</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="2:3">
+      <c r="B8">
         <v>1667200010</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="2:3">
+      <c r="B9">
         <v>1667200011</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="2:3">
+      <c r="B10">
         <v>1667200012</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="11" spans="2:3">
+      <c r="B11">
         <v>1667200013</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:2">
-      <c r="A11">
+    <row r="12" customFormat="1" spans="2:3">
+      <c r="B12">
         <v>1667200014</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
